--- a/ИЗМЕНЕНИЯ В БАЗЕ/Закрытие договоров о социальном обслуживании/Журнал старых значений/2020 Зуевский район (Фаленки надомное).xlsx
+++ b/ИЗМЕНЕНИЯ В БАЗЕ/Закрытие договоров о социальном обслуживании/Журнал старых значений/2020 Зуевский район (Фаленки надомное).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1695" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2583" uniqueCount="400">
   <si>
     <t>OUID</t>
   </si>
@@ -298,6 +298,927 @@
   </si>
   <si>
     <t>2021-01-12 16:41:34.067</t>
+  </si>
+  <si>
+    <t>8147222</t>
+  </si>
+  <si>
+    <t>2019-08-12 10:34:48.380</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>11532282</t>
+  </si>
+  <si>
+    <t>2022-08-02 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2019-09-20 15:59:33.010</t>
+  </si>
+  <si>
+    <t>2022-09-13 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2022-09-24 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2019-10-08 16:26:50.070</t>
+  </si>
+  <si>
+    <t>2022-09-18 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2022-09-25 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2022-10-23 12:00:00.000</t>
+  </si>
+  <si>
+    <t>2022-10-22 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2019-10-28 13:44:43.080</t>
+  </si>
+  <si>
+    <t>2022-10-22 12:00:00.000</t>
+  </si>
+  <si>
+    <t>2022-10-15 12:00:00.000</t>
+  </si>
+  <si>
+    <t>2022-10-15 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2022-10-16 12:00:00.000</t>
+  </si>
+  <si>
+    <t>2022-10-16 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2022-10-14 12:00:00.000</t>
+  </si>
+  <si>
+    <t>2019-11-18 13:01:23.027</t>
+  </si>
+  <si>
+    <t>2022-10-11 12:00:00.000</t>
+  </si>
+  <si>
+    <t>2022-11-05 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2022-10-31 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2022-11-01 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2022-12-01 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2019-11-18 16:51:56.020</t>
+  </si>
+  <si>
+    <t>2022-11-15 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2022-11-20 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2022-11-21 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2020-12-30 08:17:45.070</t>
+  </si>
+  <si>
+    <t>2020-12-29 08:57:15.077</t>
+  </si>
+  <si>
+    <t>2020-12-28 10:26:49.087</t>
+  </si>
+  <si>
+    <t>2022-10-23 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2022-10-14 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2020-01-28 15:57:04.090</t>
+  </si>
+  <si>
+    <t>2022-10-11 00:00:00.000</t>
+  </si>
+  <si>
+    <t>2019-09-25 13:37:28.000</t>
+  </si>
+  <si>
+    <t>2019-11-18 14:42:44.047</t>
+  </si>
+  <si>
+    <t>2022-12-01 12:00:00.000</t>
+  </si>
+  <si>
+    <t>2022-09-13 12:00:00.000</t>
+  </si>
+  <si>
+    <t>8160197</t>
+  </si>
+  <si>
+    <t>2019-08-16 13:29:29.343</t>
+  </si>
+  <si>
+    <t>8243313</t>
+  </si>
+  <si>
+    <t>8248891</t>
+  </si>
+  <si>
+    <t>2019-09-24 10:48:09.653</t>
+  </si>
+  <si>
+    <t>8253220</t>
+  </si>
+  <si>
+    <t>2019-09-25 13:37:27.700</t>
+  </si>
+  <si>
+    <t>8279054</t>
+  </si>
+  <si>
+    <t>8279094</t>
+  </si>
+  <si>
+    <t>2019-10-08 16:40:08.550</t>
+  </si>
+  <si>
+    <t>8329372</t>
+  </si>
+  <si>
+    <t>2019-11-18 13:44:54.163</t>
+  </si>
+  <si>
+    <t>8330145</t>
+  </si>
+  <si>
+    <t>2019-10-28 10:45:58.153</t>
+  </si>
+  <si>
+    <t>8330818</t>
+  </si>
+  <si>
+    <t>2019-10-28 11:58:09.320</t>
+  </si>
+  <si>
+    <t>8331461</t>
+  </si>
+  <si>
+    <t>8331660</t>
+  </si>
+  <si>
+    <t>2019-11-18 13:38:16.970</t>
+  </si>
+  <si>
+    <t>8332219</t>
+  </si>
+  <si>
+    <t>2019-11-18 13:09:38.487</t>
+  </si>
+  <si>
+    <t>8336601</t>
+  </si>
+  <si>
+    <t>2019-10-30 08:06:11.243</t>
+  </si>
+  <si>
+    <t>8338582</t>
+  </si>
+  <si>
+    <t>2019-11-18 13:28:01.767</t>
+  </si>
+  <si>
+    <t>8339753</t>
+  </si>
+  <si>
+    <t>2019-11-18 13:25:58.370</t>
+  </si>
+  <si>
+    <t>8340353</t>
+  </si>
+  <si>
+    <t>2019-11-18 13:32:05.580</t>
+  </si>
+  <si>
+    <t>8341096</t>
+  </si>
+  <si>
+    <t>2019-10-31 11:23:28.883</t>
+  </si>
+  <si>
+    <t>8341258</t>
+  </si>
+  <si>
+    <t>2019-11-18 13:24:00.980</t>
+  </si>
+  <si>
+    <t>8341479</t>
+  </si>
+  <si>
+    <t>2019-10-31 13:08:46.993</t>
+  </si>
+  <si>
+    <t>8341899</t>
+  </si>
+  <si>
+    <t>2019-11-18 13:04:08.377</t>
+  </si>
+  <si>
+    <t>8342577</t>
+  </si>
+  <si>
+    <t>8363531</t>
+  </si>
+  <si>
+    <t>2019-11-12 10:45:34.213</t>
+  </si>
+  <si>
+    <t>8382981</t>
+  </si>
+  <si>
+    <t>2019-11-18 14:08:32.927</t>
+  </si>
+  <si>
+    <t>8383262</t>
+  </si>
+  <si>
+    <t>2019-11-18 14:42:43.550</t>
+  </si>
+  <si>
+    <t>8383753</t>
+  </si>
+  <si>
+    <t>2019-11-18 15:47:32.617</t>
+  </si>
+  <si>
+    <t>8383838</t>
+  </si>
+  <si>
+    <t>2019-11-18 15:59:42.517</t>
+  </si>
+  <si>
+    <t>8383937</t>
+  </si>
+  <si>
+    <t>2019-11-18 16:11:47.523</t>
+  </si>
+  <si>
+    <t>8384106</t>
+  </si>
+  <si>
+    <t>2019-11-18 16:39:01.967</t>
+  </si>
+  <si>
+    <t>8384152</t>
+  </si>
+  <si>
+    <t>2019-11-18 16:45:15.643</t>
+  </si>
+  <si>
+    <t>8384189</t>
+  </si>
+  <si>
+    <t>8384221</t>
+  </si>
+  <si>
+    <t>2019-11-18 16:58:36.837</t>
+  </si>
+  <si>
+    <t>8384407</t>
+  </si>
+  <si>
+    <t>2019-11-19 08:11:58.617</t>
+  </si>
+  <si>
+    <t>8391661</t>
+  </si>
+  <si>
+    <t>2019-11-21 08:18:27.763</t>
+  </si>
+  <si>
+    <t>8398144</t>
+  </si>
+  <si>
+    <t>2019-11-22 15:57:33.863</t>
+  </si>
+  <si>
+    <t>8398978</t>
+  </si>
+  <si>
+    <t>2019-11-25 08:30:06.820</t>
+  </si>
+  <si>
+    <t>8399091</t>
+  </si>
+  <si>
+    <t>2019-11-25 08:46:28.847</t>
+  </si>
+  <si>
+    <t>8399436</t>
+  </si>
+  <si>
+    <t>2019-11-25 09:38:48.327</t>
+  </si>
+  <si>
+    <t>8399569</t>
+  </si>
+  <si>
+    <t>2019-11-25 09:53:54.760</t>
+  </si>
+  <si>
+    <t>8399638</t>
+  </si>
+  <si>
+    <t>2019-11-25 09:59:43.717</t>
+  </si>
+  <si>
+    <t>91556</t>
+  </si>
+  <si>
+    <t>2020-12-30 11:20:18.723</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>97949</t>
+  </si>
+  <si>
+    <t>2021-01-11 15:48:05.337</t>
+  </si>
+  <si>
+    <t>98003</t>
+  </si>
+  <si>
+    <t>2020-12-30 13:06:08.837</t>
+  </si>
+  <si>
+    <t>98126</t>
+  </si>
+  <si>
+    <t>2020-12-25 09:58:38.847</t>
+  </si>
+  <si>
+    <t>98985</t>
+  </si>
+  <si>
+    <t>2020-12-30 14:49:42.283</t>
+  </si>
+  <si>
+    <t>98989</t>
+  </si>
+  <si>
+    <t>101081</t>
+  </si>
+  <si>
+    <t>2020-12-30 08:09:57.193</t>
+  </si>
+  <si>
+    <t>101112</t>
+  </si>
+  <si>
+    <t>2020-12-29 10:42:53.353</t>
+  </si>
+  <si>
+    <t>101239</t>
+  </si>
+  <si>
+    <t>2020-12-30 13:39:56.297</t>
+  </si>
+  <si>
+    <t>101350</t>
+  </si>
+  <si>
+    <t>2020-12-30 12:59:30.147</t>
+  </si>
+  <si>
+    <t>101352</t>
+  </si>
+  <si>
+    <t>2020-12-30 13:10:56.317</t>
+  </si>
+  <si>
+    <t>101369</t>
+  </si>
+  <si>
+    <t>2020-12-30 14:56:40.660</t>
+  </si>
+  <si>
+    <t>101565</t>
+  </si>
+  <si>
+    <t>2020-12-30 15:02:32.813</t>
+  </si>
+  <si>
+    <t>101768</t>
+  </si>
+  <si>
+    <t>2020-12-29 08:30:30.367</t>
+  </si>
+  <si>
+    <t>101823</t>
+  </si>
+  <si>
+    <t>2021-02-08 15:40:03.450</t>
+  </si>
+  <si>
+    <t>101828</t>
+  </si>
+  <si>
+    <t>101864</t>
+  </si>
+  <si>
+    <t>2020-12-30 11:26:59.907</t>
+  </si>
+  <si>
+    <t>101902</t>
+  </si>
+  <si>
+    <t>2020-12-30 11:56:40.697</t>
+  </si>
+  <si>
+    <t>103014</t>
+  </si>
+  <si>
+    <t>2020-12-30 11:02:30.947</t>
+  </si>
+  <si>
+    <t>103687</t>
+  </si>
+  <si>
+    <t>2020-12-29 10:39:06.933</t>
+  </si>
+  <si>
+    <t>103693</t>
+  </si>
+  <si>
+    <t>2020-12-29 16:43:54.417</t>
+  </si>
+  <si>
+    <t>103709</t>
+  </si>
+  <si>
+    <t>2020-12-29 09:45:33.967</t>
+  </si>
+  <si>
+    <t>103714</t>
+  </si>
+  <si>
+    <t>2020-12-29 09:48:48.750</t>
+  </si>
+  <si>
+    <t>103717</t>
+  </si>
+  <si>
+    <t>2020-12-30 14:07:01.570</t>
+  </si>
+  <si>
+    <t>103731</t>
+  </si>
+  <si>
+    <t>2020-12-29 13:27:30.857</t>
+  </si>
+  <si>
+    <t>103734</t>
+  </si>
+  <si>
+    <t>2020-12-30 11:32:17.790</t>
+  </si>
+  <si>
+    <t>103737</t>
+  </si>
+  <si>
+    <t>2020-12-30 13:51:50.620</t>
+  </si>
+  <si>
+    <t>103738</t>
+  </si>
+  <si>
+    <t>2020-12-30 13:47:51.753</t>
+  </si>
+  <si>
+    <t>103780</t>
+  </si>
+  <si>
+    <t>2020-12-30 13:27:04.343</t>
+  </si>
+  <si>
+    <t>104082</t>
+  </si>
+  <si>
+    <t>2020-12-29 10:49:22.107</t>
+  </si>
+  <si>
+    <t>104332</t>
+  </si>
+  <si>
+    <t>2020-12-28 10:16:35.723</t>
+  </si>
+  <si>
+    <t>104371</t>
+  </si>
+  <si>
+    <t>2020-12-28 10:12:10.103</t>
+  </si>
+  <si>
+    <t>104372</t>
+  </si>
+  <si>
+    <t>104377</t>
+  </si>
+  <si>
+    <t>2020-11-27 10:38:30.740</t>
+  </si>
+  <si>
+    <t>104383</t>
+  </si>
+  <si>
+    <t>2020-12-28 10:23:13.103</t>
+  </si>
+  <si>
+    <t>104386</t>
+  </si>
+  <si>
+    <t>2020-12-28 10:33:08.213</t>
+  </si>
+  <si>
+    <t>91870</t>
+  </si>
+  <si>
+    <t>2020-01-30 11:57:04.230</t>
+  </si>
+  <si>
+    <t>98263</t>
+  </si>
+  <si>
+    <t>2020-01-13 15:57:12.560</t>
+  </si>
+  <si>
+    <t>98317</t>
+  </si>
+  <si>
+    <t>2020-01-30 15:57:03.487</t>
+  </si>
+  <si>
+    <t>98440</t>
+  </si>
+  <si>
+    <t>2020-01-22 15:57:08.720</t>
+  </si>
+  <si>
+    <t>99299</t>
+  </si>
+  <si>
+    <t>2020-02-03 11:56:59.103</t>
+  </si>
+  <si>
+    <t>99303</t>
+  </si>
+  <si>
+    <t>2019-10-08 16:40:08.693</t>
+  </si>
+  <si>
+    <t>101395</t>
+  </si>
+  <si>
+    <t>2020-01-29 11:57:03.997</t>
+  </si>
+  <si>
+    <t>101426</t>
+  </si>
+  <si>
+    <t>2020-01-24 15:57:07.467</t>
+  </si>
+  <si>
+    <t>101553</t>
+  </si>
+  <si>
+    <t>2019-12-19 15:57:19.980</t>
+  </si>
+  <si>
+    <t>101664</t>
+  </si>
+  <si>
+    <t>101666</t>
+  </si>
+  <si>
+    <t>101683</t>
+  </si>
+  <si>
+    <t>101879</t>
+  </si>
+  <si>
+    <t>102082</t>
+  </si>
+  <si>
+    <t>2020-01-23 11:57:09.400</t>
+  </si>
+  <si>
+    <t>102137</t>
+  </si>
+  <si>
+    <t>2021-02-08 15:39:38.800</t>
+  </si>
+  <si>
+    <t>102142</t>
+  </si>
+  <si>
+    <t>102178</t>
+  </si>
+  <si>
+    <t>102216</t>
+  </si>
+  <si>
+    <t>103328</t>
+  </si>
+  <si>
+    <t>2020-01-28 11:57:05.983</t>
+  </si>
+  <si>
+    <t>104001</t>
+  </si>
+  <si>
+    <t>104007</t>
+  </si>
+  <si>
+    <t>2019-12-19 11:57:16.483</t>
+  </si>
+  <si>
+    <t>104023</t>
+  </si>
+  <si>
+    <t>104028</t>
+  </si>
+  <si>
+    <t>104031</t>
+  </si>
+  <si>
+    <t>2020-01-22 11:57:10.240</t>
+  </si>
+  <si>
+    <t>104045</t>
+  </si>
+  <si>
+    <t>2020-01-27 11:57:09.787</t>
+  </si>
+  <si>
+    <t>104048</t>
+  </si>
+  <si>
+    <t>104051</t>
+  </si>
+  <si>
+    <t>2019-12-18 15:57:16.137</t>
+  </si>
+  <si>
+    <t>104052</t>
+  </si>
+  <si>
+    <t>104094</t>
+  </si>
+  <si>
+    <t>104397</t>
+  </si>
+  <si>
+    <t>104648</t>
+  </si>
+  <si>
+    <t>2020-01-24 11:57:19.317</t>
+  </si>
+  <si>
+    <t>104687</t>
+  </si>
+  <si>
+    <t>104688</t>
+  </si>
+  <si>
+    <t>104693</t>
+  </si>
+  <si>
+    <t>104699</t>
+  </si>
+  <si>
+    <t>104702</t>
+  </si>
+  <si>
+    <t>94463</t>
+  </si>
+  <si>
+    <t>2019-08-16 13:29:29.620</t>
+  </si>
+  <si>
+    <t>101082</t>
+  </si>
+  <si>
+    <t>2019-09-24 10:48:09.963</t>
+  </si>
+  <si>
+    <t>101213</t>
+  </si>
+  <si>
+    <t>102111</t>
+  </si>
+  <si>
+    <t>2019-10-08 16:26:50.253</t>
+  </si>
+  <si>
+    <t>102115</t>
+  </si>
+  <si>
+    <t>2019-10-08 16:40:08.727</t>
+  </si>
+  <si>
+    <t>104219</t>
+  </si>
+  <si>
+    <t>2019-10-28 09:07:27.337</t>
+  </si>
+  <si>
+    <t>104251</t>
+  </si>
+  <si>
+    <t>2019-10-28 10:45:58.373</t>
+  </si>
+  <si>
+    <t>104379</t>
+  </si>
+  <si>
+    <t>2019-10-28 11:58:09.537</t>
+  </si>
+  <si>
+    <t>104490</t>
+  </si>
+  <si>
+    <t>2019-10-28 13:44:44.103</t>
+  </si>
+  <si>
+    <t>104509</t>
+  </si>
+  <si>
+    <t>2019-10-28 15:33:47.120</t>
+  </si>
+  <si>
+    <t>104706</t>
+  </si>
+  <si>
+    <t>2019-10-30 08:06:15.157</t>
+  </si>
+  <si>
+    <t>104910</t>
+  </si>
+  <si>
+    <t>2019-10-31 08:09:33.213</t>
+  </si>
+  <si>
+    <t>104965</t>
+  </si>
+  <si>
+    <t>2019-10-31 11:54:40.927</t>
+  </si>
+  <si>
+    <t>104970</t>
+  </si>
+  <si>
+    <t>2019-10-31 13:08:47.123</t>
+  </si>
+  <si>
+    <t>105007</t>
+  </si>
+  <si>
+    <t>2019-10-31 14:14:06.870</t>
+  </si>
+  <si>
+    <t>105045</t>
+  </si>
+  <si>
+    <t>2019-10-31 16:08:30.157</t>
+  </si>
+  <si>
+    <t>106195</t>
+  </si>
+  <si>
+    <t>2019-11-12 10:45:34.313</t>
+  </si>
+  <si>
+    <t>106911</t>
+  </si>
+  <si>
+    <t>2019-11-18 14:08:33.120</t>
+  </si>
+  <si>
+    <t>106917</t>
+  </si>
+  <si>
+    <t>106933</t>
+  </si>
+  <si>
+    <t>2019-11-18 15:47:32.730</t>
+  </si>
+  <si>
+    <t>106938</t>
+  </si>
+  <si>
+    <t>2019-11-18 15:59:42.627</t>
+  </si>
+  <si>
+    <t>106941</t>
+  </si>
+  <si>
+    <t>2019-11-18 16:11:47.763</t>
+  </si>
+  <si>
+    <t>106958</t>
+  </si>
+  <si>
+    <t>2019-11-18 16:45:15.717</t>
+  </si>
+  <si>
+    <t>106961</t>
+  </si>
+  <si>
+    <t>2019-11-18 16:51:56.270</t>
+  </si>
+  <si>
+    <t>106962</t>
+  </si>
+  <si>
+    <t>2019-11-18 16:58:36.933</t>
+  </si>
+  <si>
+    <t>107004</t>
+  </si>
+  <si>
+    <t>2019-11-19 08:11:58.977</t>
+  </si>
+  <si>
+    <t>107313</t>
+  </si>
+  <si>
+    <t>2019-11-21 08:18:27.930</t>
+  </si>
+  <si>
+    <t>107570</t>
+  </si>
+  <si>
+    <t>2019-11-22 15:57:34.163</t>
+  </si>
+  <si>
+    <t>107609</t>
+  </si>
+  <si>
+    <t>2019-11-25 08:30:08.987</t>
+  </si>
+  <si>
+    <t>107610</t>
+  </si>
+  <si>
+    <t>2019-11-25 08:46:29.860</t>
+  </si>
+  <si>
+    <t>107615</t>
+  </si>
+  <si>
+    <t>2019-11-25 09:38:49.270</t>
+  </si>
+  <si>
+    <t>107621</t>
+  </si>
+  <si>
+    <t>2019-11-25 09:53:54.947</t>
+  </si>
+  <si>
+    <t>107624</t>
+  </si>
+  <si>
+    <t>2019-11-25 09:59:44.440</t>
+  </si>
+  <si>
+    <t>125234</t>
+  </si>
+  <si>
+    <t>2020-12-29 13:27:23.213</t>
+  </si>
+  <si>
+    <t>125269</t>
+  </si>
+  <si>
+    <t>2020-12-30 13:10:32.900</t>
+  </si>
+  <si>
+    <t>125348</t>
+  </si>
+  <si>
+    <t>2021-01-11 15:47:59.613</t>
   </si>
 </sst>
 </file>
@@ -314,12 +1235,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -334,9 +1261,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -631,10 +1560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F734"/>
+  <dimension ref="A1:F1040"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView tabSelected="1" topLeftCell="A726" workbookViewId="0">
+      <selection activeCell="J739" sqref="J739"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15326,6 +16255,4230 @@
       <c r="F734" t="s">
         <v>68</v>
       </c>
+    </row>
+    <row r="735" spans="1:6">
+      <c r="A735" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B735" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C735" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D735" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E735" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F735" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6">
+      <c r="A736" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B736" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C736" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D736" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E736" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F736" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6">
+      <c r="A737" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B737" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C737" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D737" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E737" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F737" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6">
+      <c r="A738" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B738" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C738" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D738" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E738" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F738" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6">
+      <c r="A739" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B739" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C739" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D739" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E739" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F739" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="740" spans="1:6">
+      <c r="A740" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B740" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C740" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D740" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E740" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F740" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6">
+      <c r="A741" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B741" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C741" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D741" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E741" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F741" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6">
+      <c r="A742" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B742" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C742" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D742" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E742" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F742" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6">
+      <c r="A743" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B743" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C743" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D743" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E743" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F743" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6">
+      <c r="A744" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B744" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C744" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D744" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E744" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F744" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6">
+      <c r="A745" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B745" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C745" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D745" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E745" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F745" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6">
+      <c r="A746" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B746" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C746" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D746" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E746" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F746" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6">
+      <c r="A747" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B747" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C747" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D747" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E747" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F747" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="748" spans="1:6">
+      <c r="A748" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B748" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C748" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D748" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E748" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F748" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6">
+      <c r="A749" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B749" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C749" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D749" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E749" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F749" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="750" spans="1:6">
+      <c r="A750" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="B750" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C750" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D750" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E750" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F750" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="751" spans="1:6">
+      <c r="A751" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B751" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C751" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D751" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E751" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F751" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6">
+      <c r="A752" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B752" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C752" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D752" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E752" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F752" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6">
+      <c r="A753" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B753" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C753" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D753" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E753" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F753" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6">
+      <c r="A754" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B754" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C754" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D754" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E754" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F754" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="755" spans="1:6">
+      <c r="A755" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="B755" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C755" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D755" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E755" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F755" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6">
+      <c r="A756" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B756" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C756" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D756" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E756" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F756" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6">
+      <c r="A757" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B757" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C757" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D757" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E757" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F757" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6">
+      <c r="A758" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B758" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C758" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D758" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E758" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F758" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6">
+      <c r="A759" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B759" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C759" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D759" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E759" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F759" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6">
+      <c r="A760" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B760" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C760" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D760" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E760" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F760" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6">
+      <c r="A761" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B761" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C761" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D761" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E761" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F761" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6">
+      <c r="A762" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B762" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C762" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D762" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E762" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F762" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6">
+      <c r="A763" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B763" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C763" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D763" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E763" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F763" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6">
+      <c r="A764" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B764" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C764" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D764" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E764" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F764" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="765" spans="1:6">
+      <c r="A765" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B765" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C765" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D765" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E765" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F765" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="766" spans="1:6">
+      <c r="A766" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B766" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C766" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D766" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E766" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F766" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="767" spans="1:6">
+      <c r="A767" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B767" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C767" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D767" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E767" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F767" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="768" spans="1:6">
+      <c r="A768" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="B768" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C768" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D768" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E768" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F768" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="769" spans="1:6">
+      <c r="A769" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B769" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="C769" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D769" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E769" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F769" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="770" spans="1:6">
+      <c r="A770" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="B770" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C770" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D770" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E770" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F770" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="771" spans="1:6">
+      <c r="A771" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="B771" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C771" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D771" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E771" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F771" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="772" spans="1:6">
+      <c r="A772" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B772" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C772" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D772" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E772" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F772" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="773" spans="1:6">
+      <c r="A773" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="B773" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C773" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D773" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E773" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F773" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="774" spans="1:6">
+      <c r="A774" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="B774" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C774" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D774" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E774" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F774" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6">
+      <c r="A775" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="B775" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C775" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D775" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E775" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F775" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6">
+      <c r="A776" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B776" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C776" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D776" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E776" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F776" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="777" spans="1:6">
+      <c r="A777" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B777" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C777" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D777" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E777" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F777" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="778" spans="1:6">
+      <c r="A778" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B778" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C778" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D778" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E778" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F778" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="779" spans="1:6">
+      <c r="A779" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B779" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C779" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D779" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E779" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F779" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6">
+      <c r="A780" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B780" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C780" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D780" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E780" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F780" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6">
+      <c r="A781" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="B781" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C781" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D781" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E781" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F781" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6">
+      <c r="A782" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="B782" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C782" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D782" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E782" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F782" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6">
+      <c r="A783" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="B783" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C783" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D783" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E783" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F783" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6">
+      <c r="A784" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="B784" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C784" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D784" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E784" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F784" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6">
+      <c r="A785" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="B785" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C785" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D785" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E785" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F785" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6">
+      <c r="A786" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="B786" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C786" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D786" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E786" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F786" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6">
+      <c r="A787" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="B787" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C787" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D787" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E787" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F787" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6">
+      <c r="A788" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B788" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C788" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D788" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E788" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F788" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6">
+      <c r="A789" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="B789" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C789" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D789" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E789" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F789" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6">
+      <c r="A790" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B790" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C790" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D790" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E790" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F790" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6">
+      <c r="A791" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="B791" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="C791" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D791" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E791" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F791" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6">
+      <c r="A792" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="B792" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C792" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D792" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E792" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F792" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6">
+      <c r="A793" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B793" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C793" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D793" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E793" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F793" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6">
+      <c r="A794" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B794" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C794" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D794" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E794" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F794" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6">
+      <c r="A795" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="B795" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C795" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D795" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E795" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F795" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6">
+      <c r="A796" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="B796" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="C796" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D796" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E796" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F796" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6">
+      <c r="A797" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B797" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C797" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D797" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E797" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F797" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6">
+      <c r="A798" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="B798" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="C798" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D798" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E798" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F798" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6">
+      <c r="A799" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="B799" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C799" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D799" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E799" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F799" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6">
+      <c r="A800" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="B800" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C800" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D800" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E800" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F800" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6">
+      <c r="A801" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B801" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C801" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D801" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E801" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F801" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6">
+      <c r="A802" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="B802" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C802" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D802" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E802" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F802" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6">
+      <c r="A803" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B803" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C803" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D803" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E803" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F803" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6">
+      <c r="A804" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="B804" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C804" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D804" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E804" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F804" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6">
+      <c r="A805" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="B805" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C805" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D805" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E805" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F805" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6">
+      <c r="A806" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B806" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C806" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D806" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E806" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F806" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6">
+      <c r="A807" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B807" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C807" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D807" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E807" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F807" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6">
+      <c r="A808" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B808" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C808" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D808" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E808" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F808" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6">
+      <c r="A809" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B809" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C809" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D809" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E809" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F809" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6">
+      <c r="A810" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B810" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="C810" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D810" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E810" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F810" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6">
+      <c r="A811" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B811" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C811" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D811" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E811" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F811" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="812" spans="1:6">
+      <c r="A812" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B812" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C812" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D812" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E812" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F812" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6">
+      <c r="A813" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B813" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C813" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D813" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E813" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F813" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6">
+      <c r="A814" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B814" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C814" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D814" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E814" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F814" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6">
+      <c r="A815" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B815" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C815" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D815" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E815" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F815" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6">
+      <c r="A816" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B816" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C816" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D816" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E816" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F816" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="817" spans="1:6">
+      <c r="A817" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B817" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="C817" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D817" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E817" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F817" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6">
+      <c r="A818" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B818" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C818" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D818" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E818" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F818" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="819" spans="1:6">
+      <c r="A819" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B819" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C819" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D819" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E819" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F819" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6">
+      <c r="A820" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B820" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C820" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D820" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E820" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F820" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6">
+      <c r="A821" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B821" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="C821" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D821" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E821" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F821" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6">
+      <c r="A822" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B822" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C822" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D822" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E822" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F822" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6">
+      <c r="A823" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="B823" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C823" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D823" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E823" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F823" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6">
+      <c r="A824" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B824" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C824" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D824" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E824" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F824" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6">
+      <c r="A825" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B825" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C825" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D825" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E825" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F825" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6">
+      <c r="A826" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B826" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C826" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D826" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E826" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F826" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6">
+      <c r="A827" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="B827" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C827" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D827" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E827" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F827" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6">
+      <c r="A828" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B828" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C828" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D828" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E828" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F828" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6">
+      <c r="A829" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="B829" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C829" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D829" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E829" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F829" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6">
+      <c r="A830" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="B830" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C830" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D830" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E830" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F830" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6">
+      <c r="A831" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="B831" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="C831" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D831" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E831" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F831" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6">
+      <c r="A832" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B832" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C832" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D832" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E832" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F832" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6">
+      <c r="A833" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="B833" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C833" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D833" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E833" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F833" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6">
+      <c r="A834" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B834" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C834" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D834" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E834" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F834" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6">
+      <c r="A835" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="B835" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C835" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D835" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E835" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F835" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6">
+      <c r="A836" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="B836" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="C836" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D836" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E836" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F836" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6">
+      <c r="A837" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B837" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="C837" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D837" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E837" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F837" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6">
+      <c r="A838" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B838" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C838" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D838" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E838" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F838" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6">
+      <c r="A839" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B839" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C839" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D839" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E839" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F839" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6">
+      <c r="A840" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="B840" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C840" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D840" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E840" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F840" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6">
+      <c r="A841" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B841" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C841" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D841" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E841" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F841" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="842" spans="1:6">
+      <c r="A842" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="B842" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C842" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D842" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E842" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F842" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6">
+      <c r="A843" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="B843" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C843" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D843" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E843" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F843" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6">
+      <c r="A844" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B844" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C844" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D844" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E844" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F844" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6">
+      <c r="A845" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B845" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C845" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D845" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E845" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F845" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6">
+      <c r="A846" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B846" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="C846" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D846" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E846" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F846" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6">
+      <c r="A847" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B847" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C847" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D847" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E847" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F847" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="848" spans="1:6">
+      <c r="A848" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="B848" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C848" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D848" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E848" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F848" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6">
+      <c r="A849" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B849" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C849" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D849" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E849" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F849" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6">
+      <c r="A850" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B850" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C850" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D850" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E850" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F850" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6">
+      <c r="A851" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B851" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C851" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D851" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E851" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F851" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6">
+      <c r="A852" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B852" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C852" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D852" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E852" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F852" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6">
+      <c r="A853" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B853" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C853" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D853" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E853" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F853" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6">
+      <c r="A854" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B854" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C854" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D854" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E854" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F854" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6">
+      <c r="A855" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B855" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C855" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D855" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E855" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F855" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6">
+      <c r="A856" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B856" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C856" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D856" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E856" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F856" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6">
+      <c r="A857" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B857" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C857" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D857" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E857" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F857" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6">
+      <c r="A858" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B858" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C858" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D858" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E858" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F858" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6">
+      <c r="A859" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B859" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C859" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D859" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E859" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F859" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6">
+      <c r="A860" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B860" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C860" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D860" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E860" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F860" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6">
+      <c r="A861" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B861" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C861" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D861" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E861" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F861" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6">
+      <c r="A862" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="B862" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C862" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D862" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E862" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F862" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6">
+      <c r="A863" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B863" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C863" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D863" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E863" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F863" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6">
+      <c r="A864" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B864" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C864" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D864" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E864" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F864" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6">
+      <c r="A865" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B865" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C865" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D865" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E865" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F865" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="866" spans="1:6">
+      <c r="A866" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="B866" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C866" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D866" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E866" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F866" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6">
+      <c r="A867" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B867" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C867" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D867" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E867" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F867" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6">
+      <c r="A868" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="B868" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="C868" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D868" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E868" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F868" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6">
+      <c r="A869" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="B869" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C869" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D869" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E869" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F869" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6">
+      <c r="A870" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B870" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="C870" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D870" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E870" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F870" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="871" spans="1:6">
+      <c r="A871" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B871" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="C871" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D871" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E871" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F871" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6">
+      <c r="A872" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B872" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C872" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D872" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E872" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F872" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="873" spans="1:6">
+      <c r="A873" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B873" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C873" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D873" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E873" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F873" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6">
+      <c r="A874" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B874" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C874" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D874" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E874" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F874" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6">
+      <c r="A875" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B875" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C875" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D875" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E875" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F875" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="876" spans="1:6">
+      <c r="A876" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B876" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C876" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D876" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E876" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F876" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="877" spans="1:6">
+      <c r="A877" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="B877" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C877" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D877" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E877" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F877" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6">
+      <c r="A878" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="B878" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="C878" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D878" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E878" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F878" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6">
+      <c r="A879" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="B879" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C879" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D879" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E879" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F879" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6">
+      <c r="A880" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="B880" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="C880" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D880" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E880" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F880" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6">
+      <c r="A881" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B881" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C881" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D881" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E881" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F881" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6">
+      <c r="A882" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="B882" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C882" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D882" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E882" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F882" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6">
+      <c r="A883" s="2"/>
+      <c r="B883" s="2"/>
+      <c r="C883" s="2"/>
+      <c r="D883" s="2"/>
+      <c r="E883" s="2"/>
+      <c r="F883" s="2"/>
+    </row>
+    <row r="884" spans="1:6">
+      <c r="A884" s="2"/>
+      <c r="B884" s="2"/>
+      <c r="C884" s="2"/>
+      <c r="D884" s="2"/>
+      <c r="E884" s="2"/>
+      <c r="F884" s="2"/>
+    </row>
+    <row r="885" spans="1:6">
+      <c r="A885" s="2"/>
+      <c r="B885" s="2"/>
+      <c r="C885" s="2"/>
+      <c r="D885" s="2"/>
+      <c r="E885" s="2"/>
+      <c r="F885" s="2"/>
+    </row>
+    <row r="886" spans="1:6">
+      <c r="A886" s="2"/>
+      <c r="B886" s="2"/>
+      <c r="C886" s="2"/>
+      <c r="D886" s="2"/>
+      <c r="E886" s="2"/>
+      <c r="F886" s="2"/>
+    </row>
+    <row r="887" spans="1:6">
+      <c r="A887" s="2"/>
+      <c r="B887" s="2"/>
+      <c r="C887" s="2"/>
+      <c r="D887" s="2"/>
+      <c r="E887" s="2"/>
+      <c r="F887" s="2"/>
+    </row>
+    <row r="888" spans="1:6">
+      <c r="A888" s="2"/>
+      <c r="B888" s="2"/>
+      <c r="C888" s="2"/>
+      <c r="D888" s="2"/>
+      <c r="E888" s="2"/>
+      <c r="F888" s="2"/>
+    </row>
+    <row r="889" spans="1:6">
+      <c r="A889" s="2"/>
+      <c r="B889" s="2"/>
+      <c r="C889" s="2"/>
+      <c r="D889" s="2"/>
+      <c r="E889" s="2"/>
+      <c r="F889" s="2"/>
+    </row>
+    <row r="890" spans="1:6">
+      <c r="A890" s="2"/>
+      <c r="B890" s="2"/>
+      <c r="C890" s="2"/>
+      <c r="D890" s="2"/>
+      <c r="E890" s="2"/>
+      <c r="F890" s="2"/>
+    </row>
+    <row r="891" spans="1:6">
+      <c r="A891" s="2"/>
+      <c r="B891" s="2"/>
+      <c r="C891" s="2"/>
+      <c r="D891" s="2"/>
+      <c r="E891" s="2"/>
+      <c r="F891" s="2"/>
+    </row>
+    <row r="892" spans="1:6">
+      <c r="A892" s="2"/>
+      <c r="B892" s="2"/>
+      <c r="C892" s="2"/>
+      <c r="D892" s="2"/>
+      <c r="E892" s="2"/>
+      <c r="F892" s="2"/>
+    </row>
+    <row r="893" spans="1:6">
+      <c r="A893" s="2"/>
+      <c r="B893" s="2"/>
+      <c r="C893" s="2"/>
+      <c r="D893" s="2"/>
+      <c r="E893" s="2"/>
+      <c r="F893" s="2"/>
+    </row>
+    <row r="894" spans="1:6">
+      <c r="A894" s="2"/>
+      <c r="B894" s="2"/>
+      <c r="C894" s="2"/>
+      <c r="D894" s="2"/>
+      <c r="E894" s="2"/>
+      <c r="F894" s="2"/>
+    </row>
+    <row r="895" spans="1:6">
+      <c r="A895" s="2"/>
+      <c r="B895" s="2"/>
+      <c r="C895" s="2"/>
+      <c r="D895" s="2"/>
+      <c r="E895" s="2"/>
+      <c r="F895" s="2"/>
+    </row>
+    <row r="896" spans="1:6">
+      <c r="A896" s="2"/>
+      <c r="B896" s="2"/>
+      <c r="C896" s="2"/>
+      <c r="D896" s="2"/>
+      <c r="E896" s="2"/>
+      <c r="F896" s="2"/>
+    </row>
+    <row r="897" spans="1:6">
+      <c r="A897" s="2"/>
+      <c r="B897" s="2"/>
+      <c r="C897" s="2"/>
+      <c r="D897" s="2"/>
+      <c r="E897" s="2"/>
+      <c r="F897" s="2"/>
+    </row>
+    <row r="898" spans="1:6">
+      <c r="A898" s="2"/>
+      <c r="B898" s="2"/>
+      <c r="C898" s="2"/>
+      <c r="D898" s="2"/>
+      <c r="E898" s="2"/>
+      <c r="F898" s="2"/>
+    </row>
+    <row r="899" spans="1:6">
+      <c r="A899" s="2"/>
+      <c r="B899" s="2"/>
+      <c r="C899" s="2"/>
+      <c r="D899" s="2"/>
+      <c r="E899" s="2"/>
+      <c r="F899" s="2"/>
+    </row>
+    <row r="900" spans="1:6">
+      <c r="A900" s="2"/>
+      <c r="B900" s="2"/>
+      <c r="C900" s="2"/>
+      <c r="D900" s="2"/>
+      <c r="E900" s="2"/>
+      <c r="F900" s="2"/>
+    </row>
+    <row r="901" spans="1:6">
+      <c r="A901" s="2"/>
+      <c r="B901" s="2"/>
+      <c r="C901" s="2"/>
+      <c r="D901" s="2"/>
+      <c r="E901" s="2"/>
+      <c r="F901" s="2"/>
+    </row>
+    <row r="902" spans="1:6">
+      <c r="A902" s="2"/>
+      <c r="B902" s="2"/>
+      <c r="C902" s="2"/>
+      <c r="D902" s="2"/>
+      <c r="E902" s="2"/>
+      <c r="F902" s="2"/>
+    </row>
+    <row r="903" spans="1:6">
+      <c r="A903" s="2"/>
+      <c r="B903" s="2"/>
+      <c r="C903" s="2"/>
+      <c r="D903" s="2"/>
+      <c r="E903" s="2"/>
+      <c r="F903" s="2"/>
+    </row>
+    <row r="904" spans="1:6">
+      <c r="A904" s="2"/>
+      <c r="B904" s="2"/>
+      <c r="C904" s="2"/>
+      <c r="D904" s="2"/>
+      <c r="E904" s="2"/>
+      <c r="F904" s="2"/>
+    </row>
+    <row r="905" spans="1:6">
+      <c r="A905" s="2"/>
+      <c r="B905" s="2"/>
+      <c r="C905" s="2"/>
+      <c r="D905" s="2"/>
+      <c r="E905" s="2"/>
+      <c r="F905" s="2"/>
+    </row>
+    <row r="906" spans="1:6">
+      <c r="A906" s="2"/>
+      <c r="B906" s="2"/>
+      <c r="C906" s="2"/>
+      <c r="D906" s="2"/>
+      <c r="E906" s="2"/>
+      <c r="F906" s="2"/>
+    </row>
+    <row r="907" spans="1:6">
+      <c r="A907" s="2"/>
+      <c r="B907" s="2"/>
+      <c r="C907" s="2"/>
+      <c r="D907" s="2"/>
+      <c r="E907" s="2"/>
+      <c r="F907" s="2"/>
+    </row>
+    <row r="908" spans="1:6">
+      <c r="A908" s="2"/>
+      <c r="B908" s="2"/>
+      <c r="C908" s="2"/>
+      <c r="D908" s="2"/>
+      <c r="E908" s="2"/>
+      <c r="F908" s="2"/>
+    </row>
+    <row r="909" spans="1:6">
+      <c r="A909" s="2"/>
+      <c r="B909" s="2"/>
+      <c r="C909" s="2"/>
+      <c r="D909" s="2"/>
+      <c r="E909" s="2"/>
+      <c r="F909" s="2"/>
+    </row>
+    <row r="910" spans="1:6">
+      <c r="A910" s="2"/>
+      <c r="B910" s="2"/>
+      <c r="C910" s="2"/>
+      <c r="D910" s="2"/>
+      <c r="E910" s="2"/>
+      <c r="F910" s="2"/>
+    </row>
+    <row r="911" spans="1:6">
+      <c r="A911" s="2"/>
+      <c r="B911" s="2"/>
+      <c r="C911" s="2"/>
+      <c r="D911" s="2"/>
+      <c r="E911" s="2"/>
+      <c r="F911" s="2"/>
+    </row>
+    <row r="912" spans="1:6">
+      <c r="A912" s="2"/>
+      <c r="B912" s="2"/>
+      <c r="C912" s="2"/>
+      <c r="D912" s="2"/>
+      <c r="E912" s="2"/>
+      <c r="F912" s="2"/>
+    </row>
+    <row r="913" spans="1:6">
+      <c r="A913" s="2"/>
+      <c r="B913" s="2"/>
+      <c r="C913" s="2"/>
+      <c r="D913" s="2"/>
+      <c r="E913" s="2"/>
+      <c r="F913" s="2"/>
+    </row>
+    <row r="914" spans="1:6">
+      <c r="A914" s="2"/>
+      <c r="B914" s="2"/>
+      <c r="C914" s="2"/>
+      <c r="D914" s="2"/>
+      <c r="E914" s="2"/>
+      <c r="F914" s="2"/>
+    </row>
+    <row r="915" spans="1:6">
+      <c r="A915" s="2"/>
+      <c r="B915" s="2"/>
+      <c r="C915" s="2"/>
+      <c r="D915" s="2"/>
+      <c r="E915" s="2"/>
+      <c r="F915" s="2"/>
+    </row>
+    <row r="916" spans="1:6">
+      <c r="A916" s="2"/>
+      <c r="B916" s="2"/>
+      <c r="C916" s="2"/>
+      <c r="D916" s="2"/>
+      <c r="E916" s="2"/>
+      <c r="F916" s="2"/>
+    </row>
+    <row r="917" spans="1:6">
+      <c r="A917" s="2"/>
+      <c r="B917" s="2"/>
+      <c r="C917" s="2"/>
+      <c r="D917" s="2"/>
+      <c r="E917" s="2"/>
+      <c r="F917" s="2"/>
+    </row>
+    <row r="918" spans="1:6">
+      <c r="A918" s="2"/>
+      <c r="B918" s="2"/>
+      <c r="C918" s="2"/>
+      <c r="D918" s="2"/>
+      <c r="E918" s="2"/>
+      <c r="F918" s="2"/>
+    </row>
+    <row r="919" spans="1:6">
+      <c r="A919" s="2"/>
+      <c r="B919" s="2"/>
+      <c r="C919" s="2"/>
+      <c r="D919" s="2"/>
+      <c r="E919" s="2"/>
+      <c r="F919" s="2"/>
+    </row>
+    <row r="920" spans="1:6">
+      <c r="A920" s="2"/>
+      <c r="B920" s="2"/>
+      <c r="C920" s="2"/>
+      <c r="D920" s="2"/>
+      <c r="E920" s="2"/>
+      <c r="F920" s="2"/>
+    </row>
+    <row r="921" spans="1:6">
+      <c r="A921" s="2"/>
+      <c r="B921" s="2"/>
+      <c r="C921" s="2"/>
+      <c r="D921" s="2"/>
+      <c r="E921" s="2"/>
+      <c r="F921" s="2"/>
+    </row>
+    <row r="922" spans="1:6">
+      <c r="A922" s="2"/>
+      <c r="B922" s="2"/>
+      <c r="C922" s="2"/>
+      <c r="D922" s="2"/>
+      <c r="E922" s="2"/>
+      <c r="F922" s="2"/>
+    </row>
+    <row r="923" spans="1:6">
+      <c r="A923" s="2"/>
+      <c r="B923" s="2"/>
+      <c r="C923" s="2"/>
+      <c r="D923" s="2"/>
+      <c r="E923" s="2"/>
+      <c r="F923" s="2"/>
+    </row>
+    <row r="924" spans="1:6">
+      <c r="A924" s="2"/>
+      <c r="B924" s="2"/>
+      <c r="C924" s="2"/>
+      <c r="D924" s="2"/>
+      <c r="E924" s="2"/>
+      <c r="F924" s="2"/>
+    </row>
+    <row r="925" spans="1:6">
+      <c r="A925" s="2"/>
+      <c r="B925" s="2"/>
+      <c r="C925" s="2"/>
+      <c r="D925" s="2"/>
+      <c r="E925" s="2"/>
+      <c r="F925" s="2"/>
+    </row>
+    <row r="926" spans="1:6">
+      <c r="A926" s="2"/>
+      <c r="B926" s="2"/>
+      <c r="C926" s="2"/>
+      <c r="D926" s="2"/>
+      <c r="E926" s="2"/>
+      <c r="F926" s="2"/>
+    </row>
+    <row r="927" spans="1:6">
+      <c r="A927" s="2"/>
+      <c r="B927" s="2"/>
+      <c r="C927" s="2"/>
+      <c r="D927" s="2"/>
+      <c r="E927" s="2"/>
+      <c r="F927" s="2"/>
+    </row>
+    <row r="928" spans="1:6">
+      <c r="A928" s="2"/>
+      <c r="B928" s="2"/>
+      <c r="C928" s="2"/>
+      <c r="D928" s="2"/>
+      <c r="E928" s="2"/>
+      <c r="F928" s="2"/>
+    </row>
+    <row r="929" spans="1:6">
+      <c r="A929" s="2"/>
+      <c r="B929" s="2"/>
+      <c r="C929" s="2"/>
+      <c r="D929" s="2"/>
+      <c r="E929" s="2"/>
+      <c r="F929" s="2"/>
+    </row>
+    <row r="930" spans="1:6">
+      <c r="A930" s="2"/>
+      <c r="B930" s="2"/>
+      <c r="C930" s="2"/>
+      <c r="D930" s="2"/>
+      <c r="E930" s="2"/>
+      <c r="F930" s="2"/>
+    </row>
+    <row r="931" spans="1:6">
+      <c r="A931" s="2"/>
+      <c r="B931" s="2"/>
+      <c r="C931" s="2"/>
+      <c r="D931" s="2"/>
+      <c r="E931" s="2"/>
+      <c r="F931" s="2"/>
+    </row>
+    <row r="932" spans="1:6">
+      <c r="A932" s="2"/>
+      <c r="B932" s="2"/>
+      <c r="C932" s="2"/>
+      <c r="D932" s="2"/>
+      <c r="E932" s="2"/>
+      <c r="F932" s="2"/>
+    </row>
+    <row r="933" spans="1:6">
+      <c r="A933" s="2"/>
+      <c r="B933" s="2"/>
+      <c r="C933" s="2"/>
+      <c r="D933" s="2"/>
+      <c r="E933" s="2"/>
+      <c r="F933" s="2"/>
+    </row>
+    <row r="934" spans="1:6">
+      <c r="A934" s="2"/>
+      <c r="B934" s="2"/>
+      <c r="C934" s="2"/>
+      <c r="D934" s="2"/>
+      <c r="E934" s="2"/>
+      <c r="F934" s="2"/>
+    </row>
+    <row r="935" spans="1:6">
+      <c r="A935" s="2"/>
+      <c r="B935" s="2"/>
+      <c r="C935" s="2"/>
+      <c r="D935" s="2"/>
+      <c r="E935" s="2"/>
+      <c r="F935" s="2"/>
+    </row>
+    <row r="936" spans="1:6">
+      <c r="A936" s="2"/>
+      <c r="B936" s="2"/>
+      <c r="C936" s="2"/>
+      <c r="D936" s="2"/>
+      <c r="E936" s="2"/>
+      <c r="F936" s="2"/>
+    </row>
+    <row r="937" spans="1:6">
+      <c r="A937" s="2"/>
+      <c r="B937" s="2"/>
+      <c r="C937" s="2"/>
+      <c r="D937" s="2"/>
+      <c r="E937" s="2"/>
+      <c r="F937" s="2"/>
+    </row>
+    <row r="938" spans="1:6">
+      <c r="A938" s="2"/>
+      <c r="B938" s="2"/>
+      <c r="C938" s="2"/>
+      <c r="D938" s="2"/>
+      <c r="E938" s="2"/>
+      <c r="F938" s="2"/>
+    </row>
+    <row r="939" spans="1:6">
+      <c r="A939" s="2"/>
+      <c r="B939" s="2"/>
+      <c r="C939" s="2"/>
+      <c r="D939" s="2"/>
+      <c r="E939" s="2"/>
+      <c r="F939" s="2"/>
+    </row>
+    <row r="940" spans="1:6">
+      <c r="A940" s="2"/>
+      <c r="B940" s="2"/>
+      <c r="C940" s="2"/>
+      <c r="D940" s="2"/>
+      <c r="E940" s="2"/>
+      <c r="F940" s="2"/>
+    </row>
+    <row r="941" spans="1:6">
+      <c r="A941" s="2"/>
+      <c r="B941" s="2"/>
+      <c r="C941" s="2"/>
+      <c r="D941" s="2"/>
+      <c r="E941" s="2"/>
+      <c r="F941" s="2"/>
+    </row>
+    <row r="942" spans="1:6">
+      <c r="A942" s="2"/>
+      <c r="B942" s="2"/>
+      <c r="C942" s="2"/>
+      <c r="D942" s="2"/>
+      <c r="E942" s="2"/>
+      <c r="F942" s="2"/>
+    </row>
+    <row r="943" spans="1:6">
+      <c r="A943" s="2"/>
+      <c r="B943" s="2"/>
+      <c r="C943" s="2"/>
+      <c r="D943" s="2"/>
+      <c r="E943" s="2"/>
+      <c r="F943" s="2"/>
+    </row>
+    <row r="944" spans="1:6">
+      <c r="A944" s="2"/>
+      <c r="B944" s="2"/>
+      <c r="C944" s="2"/>
+      <c r="D944" s="2"/>
+      <c r="E944" s="2"/>
+      <c r="F944" s="2"/>
+    </row>
+    <row r="945" spans="1:6">
+      <c r="A945" s="2"/>
+      <c r="B945" s="2"/>
+      <c r="C945" s="2"/>
+      <c r="D945" s="2"/>
+      <c r="E945" s="2"/>
+      <c r="F945" s="2"/>
+    </row>
+    <row r="946" spans="1:6">
+      <c r="A946" s="2"/>
+      <c r="B946" s="2"/>
+      <c r="C946" s="2"/>
+      <c r="D946" s="2"/>
+      <c r="E946" s="2"/>
+      <c r="F946" s="2"/>
+    </row>
+    <row r="947" spans="1:6">
+      <c r="A947" s="2"/>
+      <c r="B947" s="2"/>
+      <c r="C947" s="2"/>
+      <c r="D947" s="2"/>
+      <c r="E947" s="2"/>
+      <c r="F947" s="2"/>
+    </row>
+    <row r="948" spans="1:6">
+      <c r="A948" s="2"/>
+      <c r="B948" s="2"/>
+      <c r="C948" s="2"/>
+      <c r="D948" s="2"/>
+      <c r="E948" s="2"/>
+      <c r="F948" s="2"/>
+    </row>
+    <row r="949" spans="1:6">
+      <c r="A949" s="2"/>
+      <c r="B949" s="2"/>
+      <c r="C949" s="2"/>
+      <c r="D949" s="2"/>
+      <c r="E949" s="2"/>
+      <c r="F949" s="2"/>
+    </row>
+    <row r="950" spans="1:6">
+      <c r="A950" s="2"/>
+      <c r="B950" s="2"/>
+      <c r="C950" s="2"/>
+      <c r="D950" s="2"/>
+      <c r="E950" s="2"/>
+      <c r="F950" s="2"/>
+    </row>
+    <row r="951" spans="1:6">
+      <c r="A951" s="2"/>
+      <c r="B951" s="2"/>
+      <c r="C951" s="2"/>
+      <c r="D951" s="2"/>
+      <c r="E951" s="2"/>
+      <c r="F951" s="2"/>
+    </row>
+    <row r="952" spans="1:6">
+      <c r="A952" s="2"/>
+      <c r="B952" s="2"/>
+      <c r="C952" s="2"/>
+      <c r="D952" s="2"/>
+      <c r="E952" s="2"/>
+      <c r="F952" s="2"/>
+    </row>
+    <row r="953" spans="1:6">
+      <c r="A953" s="2"/>
+      <c r="B953" s="2"/>
+      <c r="C953" s="2"/>
+      <c r="D953" s="2"/>
+      <c r="E953" s="2"/>
+      <c r="F953" s="2"/>
+    </row>
+    <row r="954" spans="1:6">
+      <c r="A954" s="2"/>
+      <c r="B954" s="2"/>
+      <c r="C954" s="2"/>
+      <c r="D954" s="2"/>
+      <c r="E954" s="2"/>
+      <c r="F954" s="2"/>
+    </row>
+    <row r="955" spans="1:6">
+      <c r="A955" s="2"/>
+      <c r="B955" s="2"/>
+      <c r="C955" s="2"/>
+      <c r="D955" s="2"/>
+      <c r="E955" s="2"/>
+      <c r="F955" s="2"/>
+    </row>
+    <row r="956" spans="1:6">
+      <c r="A956" s="2"/>
+      <c r="B956" s="2"/>
+      <c r="C956" s="2"/>
+      <c r="D956" s="2"/>
+      <c r="E956" s="2"/>
+      <c r="F956" s="2"/>
+    </row>
+    <row r="957" spans="1:6">
+      <c r="A957" s="2"/>
+      <c r="B957" s="2"/>
+      <c r="C957" s="2"/>
+      <c r="D957" s="2"/>
+      <c r="E957" s="2"/>
+      <c r="F957" s="2"/>
+    </row>
+    <row r="958" spans="1:6">
+      <c r="A958" s="2"/>
+      <c r="B958" s="2"/>
+      <c r="C958" s="2"/>
+      <c r="D958" s="2"/>
+      <c r="E958" s="2"/>
+      <c r="F958" s="2"/>
+    </row>
+    <row r="959" spans="1:6">
+      <c r="A959" s="2"/>
+      <c r="B959" s="2"/>
+      <c r="C959" s="2"/>
+      <c r="D959" s="2"/>
+      <c r="E959" s="2"/>
+      <c r="F959" s="2"/>
+    </row>
+    <row r="960" spans="1:6">
+      <c r="A960" s="2"/>
+      <c r="B960" s="2"/>
+      <c r="C960" s="2"/>
+      <c r="D960" s="2"/>
+      <c r="E960" s="2"/>
+      <c r="F960" s="2"/>
+    </row>
+    <row r="961" spans="1:6">
+      <c r="A961" s="2"/>
+      <c r="B961" s="2"/>
+      <c r="C961" s="2"/>
+      <c r="D961" s="2"/>
+      <c r="E961" s="2"/>
+      <c r="F961" s="2"/>
+    </row>
+    <row r="962" spans="1:6">
+      <c r="A962" s="2"/>
+      <c r="B962" s="2"/>
+      <c r="C962" s="2"/>
+      <c r="D962" s="2"/>
+      <c r="E962" s="2"/>
+      <c r="F962" s="2"/>
+    </row>
+    <row r="963" spans="1:6">
+      <c r="A963" s="2"/>
+      <c r="B963" s="2"/>
+      <c r="C963" s="2"/>
+      <c r="D963" s="2"/>
+      <c r="E963" s="2"/>
+      <c r="F963" s="2"/>
+    </row>
+    <row r="964" spans="1:6">
+      <c r="A964" s="2"/>
+      <c r="B964" s="2"/>
+      <c r="C964" s="2"/>
+      <c r="D964" s="2"/>
+      <c r="E964" s="2"/>
+      <c r="F964" s="2"/>
+    </row>
+    <row r="965" spans="1:6">
+      <c r="A965" s="2"/>
+      <c r="B965" s="2"/>
+      <c r="C965" s="2"/>
+      <c r="D965" s="2"/>
+      <c r="E965" s="2"/>
+      <c r="F965" s="2"/>
+    </row>
+    <row r="966" spans="1:6">
+      <c r="A966" s="2"/>
+      <c r="B966" s="2"/>
+      <c r="C966" s="2"/>
+      <c r="D966" s="2"/>
+      <c r="E966" s="2"/>
+      <c r="F966" s="2"/>
+    </row>
+    <row r="967" spans="1:6">
+      <c r="A967" s="2"/>
+      <c r="B967" s="2"/>
+      <c r="C967" s="2"/>
+      <c r="D967" s="2"/>
+      <c r="E967" s="2"/>
+      <c r="F967" s="2"/>
+    </row>
+    <row r="968" spans="1:6">
+      <c r="A968" s="2"/>
+      <c r="B968" s="2"/>
+      <c r="C968" s="2"/>
+      <c r="D968" s="2"/>
+      <c r="E968" s="2"/>
+      <c r="F968" s="2"/>
+    </row>
+    <row r="969" spans="1:6">
+      <c r="A969" s="2"/>
+      <c r="B969" s="2"/>
+      <c r="C969" s="2"/>
+      <c r="D969" s="2"/>
+      <c r="E969" s="2"/>
+      <c r="F969" s="2"/>
+    </row>
+    <row r="970" spans="1:6">
+      <c r="A970" s="2"/>
+      <c r="B970" s="2"/>
+      <c r="C970" s="2"/>
+      <c r="D970" s="2"/>
+      <c r="E970" s="2"/>
+      <c r="F970" s="2"/>
+    </row>
+    <row r="971" spans="1:6">
+      <c r="A971" s="2"/>
+      <c r="B971" s="2"/>
+      <c r="C971" s="2"/>
+      <c r="D971" s="2"/>
+      <c r="E971" s="2"/>
+      <c r="F971" s="2"/>
+    </row>
+    <row r="972" spans="1:6">
+      <c r="A972" s="2"/>
+      <c r="B972" s="2"/>
+      <c r="C972" s="2"/>
+      <c r="D972" s="2"/>
+      <c r="E972" s="2"/>
+      <c r="F972" s="2"/>
+    </row>
+    <row r="973" spans="1:6">
+      <c r="A973" s="2"/>
+      <c r="B973" s="2"/>
+      <c r="C973" s="2"/>
+      <c r="D973" s="2"/>
+      <c r="E973" s="2"/>
+      <c r="F973" s="2"/>
+    </row>
+    <row r="974" spans="1:6">
+      <c r="A974" s="2"/>
+      <c r="B974" s="2"/>
+      <c r="C974" s="2"/>
+      <c r="D974" s="2"/>
+      <c r="E974" s="2"/>
+      <c r="F974" s="2"/>
+    </row>
+    <row r="975" spans="1:6">
+      <c r="A975" s="2"/>
+      <c r="B975" s="2"/>
+      <c r="C975" s="2"/>
+      <c r="D975" s="2"/>
+      <c r="E975" s="2"/>
+      <c r="F975" s="2"/>
+    </row>
+    <row r="976" spans="1:6">
+      <c r="A976" s="2"/>
+      <c r="B976" s="2"/>
+      <c r="C976" s="2"/>
+      <c r="D976" s="2"/>
+      <c r="E976" s="2"/>
+      <c r="F976" s="2"/>
+    </row>
+    <row r="977" spans="1:6">
+      <c r="A977" s="2"/>
+      <c r="B977" s="2"/>
+      <c r="C977" s="2"/>
+      <c r="D977" s="2"/>
+      <c r="E977" s="2"/>
+      <c r="F977" s="2"/>
+    </row>
+    <row r="978" spans="1:6">
+      <c r="A978" s="2"/>
+      <c r="B978" s="2"/>
+      <c r="C978" s="2"/>
+      <c r="D978" s="2"/>
+      <c r="E978" s="2"/>
+      <c r="F978" s="2"/>
+    </row>
+    <row r="979" spans="1:6">
+      <c r="A979" s="2"/>
+      <c r="B979" s="2"/>
+      <c r="C979" s="2"/>
+      <c r="D979" s="2"/>
+      <c r="E979" s="2"/>
+      <c r="F979" s="2"/>
+    </row>
+    <row r="980" spans="1:6">
+      <c r="A980" s="2"/>
+      <c r="B980" s="2"/>
+      <c r="C980" s="2"/>
+      <c r="D980" s="2"/>
+      <c r="E980" s="2"/>
+      <c r="F980" s="2"/>
+    </row>
+    <row r="981" spans="1:6">
+      <c r="A981" s="2"/>
+      <c r="B981" s="2"/>
+      <c r="C981" s="2"/>
+      <c r="D981" s="2"/>
+      <c r="E981" s="2"/>
+      <c r="F981" s="2"/>
+    </row>
+    <row r="982" spans="1:6">
+      <c r="A982" s="2"/>
+      <c r="B982" s="2"/>
+      <c r="C982" s="2"/>
+      <c r="D982" s="2"/>
+      <c r="E982" s="2"/>
+      <c r="F982" s="2"/>
+    </row>
+    <row r="983" spans="1:6">
+      <c r="A983" s="2"/>
+      <c r="B983" s="2"/>
+      <c r="C983" s="2"/>
+      <c r="D983" s="2"/>
+      <c r="E983" s="2"/>
+      <c r="F983" s="2"/>
+    </row>
+    <row r="984" spans="1:6">
+      <c r="A984" s="2"/>
+      <c r="B984" s="2"/>
+      <c r="C984" s="2"/>
+      <c r="D984" s="2"/>
+      <c r="E984" s="2"/>
+      <c r="F984" s="2"/>
+    </row>
+    <row r="985" spans="1:6">
+      <c r="A985" s="2"/>
+      <c r="B985" s="2"/>
+      <c r="C985" s="2"/>
+      <c r="D985" s="2"/>
+      <c r="E985" s="2"/>
+      <c r="F985" s="2"/>
+    </row>
+    <row r="986" spans="1:6">
+      <c r="A986" s="2"/>
+      <c r="B986" s="2"/>
+      <c r="C986" s="2"/>
+      <c r="D986" s="2"/>
+      <c r="E986" s="2"/>
+      <c r="F986" s="2"/>
+    </row>
+    <row r="987" spans="1:6">
+      <c r="A987" s="2"/>
+      <c r="B987" s="2"/>
+      <c r="C987" s="2"/>
+      <c r="D987" s="2"/>
+      <c r="E987" s="2"/>
+      <c r="F987" s="2"/>
+    </row>
+    <row r="988" spans="1:6">
+      <c r="A988" s="2"/>
+      <c r="B988" s="2"/>
+      <c r="C988" s="2"/>
+      <c r="D988" s="2"/>
+      <c r="E988" s="2"/>
+      <c r="F988" s="2"/>
+    </row>
+    <row r="989" spans="1:6">
+      <c r="A989" s="2"/>
+      <c r="B989" s="2"/>
+      <c r="C989" s="2"/>
+      <c r="D989" s="2"/>
+      <c r="E989" s="2"/>
+      <c r="F989" s="2"/>
+    </row>
+    <row r="990" spans="1:6">
+      <c r="A990" s="2"/>
+      <c r="B990" s="2"/>
+      <c r="C990" s="2"/>
+      <c r="D990" s="2"/>
+      <c r="E990" s="2"/>
+      <c r="F990" s="2"/>
+    </row>
+    <row r="991" spans="1:6">
+      <c r="A991" s="2"/>
+      <c r="B991" s="2"/>
+      <c r="C991" s="2"/>
+      <c r="D991" s="2"/>
+      <c r="E991" s="2"/>
+      <c r="F991" s="2"/>
+    </row>
+    <row r="992" spans="1:6">
+      <c r="A992" s="2"/>
+      <c r="B992" s="2"/>
+      <c r="C992" s="2"/>
+      <c r="D992" s="2"/>
+      <c r="E992" s="2"/>
+      <c r="F992" s="2"/>
+    </row>
+    <row r="993" spans="1:6">
+      <c r="A993" s="2"/>
+      <c r="B993" s="2"/>
+      <c r="C993" s="2"/>
+      <c r="D993" s="2"/>
+      <c r="E993" s="2"/>
+      <c r="F993" s="2"/>
+    </row>
+    <row r="994" spans="1:6">
+      <c r="A994" s="2"/>
+      <c r="B994" s="2"/>
+      <c r="C994" s="2"/>
+      <c r="D994" s="2"/>
+      <c r="E994" s="2"/>
+      <c r="F994" s="2"/>
+    </row>
+    <row r="995" spans="1:6">
+      <c r="A995" s="2"/>
+      <c r="B995" s="2"/>
+      <c r="C995" s="2"/>
+      <c r="D995" s="2"/>
+      <c r="E995" s="2"/>
+      <c r="F995" s="2"/>
+    </row>
+    <row r="996" spans="1:6">
+      <c r="A996" s="2"/>
+      <c r="B996" s="2"/>
+      <c r="C996" s="2"/>
+      <c r="D996" s="2"/>
+      <c r="E996" s="2"/>
+      <c r="F996" s="2"/>
+    </row>
+    <row r="997" spans="1:6">
+      <c r="A997" s="2"/>
+      <c r="B997" s="2"/>
+      <c r="C997" s="2"/>
+      <c r="D997" s="2"/>
+      <c r="E997" s="2"/>
+      <c r="F997" s="2"/>
+    </row>
+    <row r="998" spans="1:6">
+      <c r="A998" s="2"/>
+      <c r="B998" s="2"/>
+      <c r="C998" s="2"/>
+      <c r="D998" s="2"/>
+      <c r="E998" s="2"/>
+      <c r="F998" s="2"/>
+    </row>
+    <row r="999" spans="1:6">
+      <c r="A999" s="2"/>
+      <c r="B999" s="2"/>
+      <c r="C999" s="2"/>
+      <c r="D999" s="2"/>
+      <c r="E999" s="2"/>
+      <c r="F999" s="2"/>
+    </row>
+    <row r="1000" spans="1:6">
+      <c r="A1000" s="2"/>
+      <c r="B1000" s="2"/>
+      <c r="C1000" s="2"/>
+      <c r="D1000" s="2"/>
+      <c r="E1000" s="2"/>
+      <c r="F1000" s="2"/>
+    </row>
+    <row r="1001" spans="1:6">
+      <c r="A1001" s="2"/>
+      <c r="B1001" s="2"/>
+      <c r="C1001" s="2"/>
+      <c r="D1001" s="2"/>
+      <c r="E1001" s="2"/>
+      <c r="F1001" s="2"/>
+    </row>
+    <row r="1002" spans="1:6">
+      <c r="A1002" s="2"/>
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="2"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="2"/>
+      <c r="F1002" s="2"/>
+    </row>
+    <row r="1003" spans="1:6">
+      <c r="A1003" s="2"/>
+      <c r="B1003" s="2"/>
+      <c r="C1003" s="2"/>
+      <c r="D1003" s="2"/>
+      <c r="E1003" s="2"/>
+      <c r="F1003" s="2"/>
+    </row>
+    <row r="1004" spans="1:6">
+      <c r="A1004" s="2"/>
+      <c r="B1004" s="2"/>
+      <c r="C1004" s="2"/>
+      <c r="D1004" s="2"/>
+      <c r="E1004" s="2"/>
+      <c r="F1004" s="2"/>
+    </row>
+    <row r="1005" spans="1:6">
+      <c r="A1005" s="2"/>
+      <c r="B1005" s="2"/>
+      <c r="C1005" s="2"/>
+      <c r="D1005" s="2"/>
+      <c r="E1005" s="2"/>
+      <c r="F1005" s="2"/>
+    </row>
+    <row r="1006" spans="1:6">
+      <c r="A1006" s="2"/>
+      <c r="B1006" s="2"/>
+      <c r="C1006" s="2"/>
+      <c r="D1006" s="2"/>
+      <c r="E1006" s="2"/>
+      <c r="F1006" s="2"/>
+    </row>
+    <row r="1007" spans="1:6">
+      <c r="A1007" s="2"/>
+      <c r="B1007" s="2"/>
+      <c r="C1007" s="2"/>
+      <c r="D1007" s="2"/>
+      <c r="E1007" s="2"/>
+      <c r="F1007" s="2"/>
+    </row>
+    <row r="1008" spans="1:6">
+      <c r="A1008" s="2"/>
+      <c r="B1008" s="2"/>
+      <c r="C1008" s="2"/>
+      <c r="D1008" s="2"/>
+      <c r="E1008" s="2"/>
+      <c r="F1008" s="2"/>
+    </row>
+    <row r="1009" spans="1:6">
+      <c r="A1009" s="2"/>
+      <c r="B1009" s="2"/>
+      <c r="C1009" s="2"/>
+      <c r="D1009" s="2"/>
+      <c r="E1009" s="2"/>
+      <c r="F1009" s="2"/>
+    </row>
+    <row r="1010" spans="1:6">
+      <c r="A1010" s="2"/>
+      <c r="B1010" s="2"/>
+      <c r="C1010" s="2"/>
+      <c r="D1010" s="2"/>
+      <c r="E1010" s="2"/>
+      <c r="F1010" s="2"/>
+    </row>
+    <row r="1011" spans="1:6">
+      <c r="A1011" s="2"/>
+      <c r="B1011" s="2"/>
+      <c r="C1011" s="2"/>
+      <c r="D1011" s="2"/>
+      <c r="E1011" s="2"/>
+      <c r="F1011" s="2"/>
+    </row>
+    <row r="1012" spans="1:6">
+      <c r="A1012" s="2"/>
+      <c r="B1012" s="2"/>
+      <c r="C1012" s="2"/>
+      <c r="D1012" s="2"/>
+      <c r="E1012" s="2"/>
+      <c r="F1012" s="2"/>
+    </row>
+    <row r="1013" spans="1:6">
+      <c r="A1013" s="2"/>
+      <c r="B1013" s="2"/>
+      <c r="C1013" s="2"/>
+      <c r="D1013" s="2"/>
+      <c r="E1013" s="2"/>
+      <c r="F1013" s="2"/>
+    </row>
+    <row r="1014" spans="1:6">
+      <c r="A1014" s="2"/>
+      <c r="B1014" s="2"/>
+      <c r="C1014" s="2"/>
+      <c r="D1014" s="2"/>
+      <c r="E1014" s="2"/>
+      <c r="F1014" s="2"/>
+    </row>
+    <row r="1015" spans="1:6">
+      <c r="A1015" s="2"/>
+      <c r="B1015" s="2"/>
+      <c r="C1015" s="2"/>
+      <c r="D1015" s="2"/>
+      <c r="E1015" s="2"/>
+      <c r="F1015" s="2"/>
+    </row>
+    <row r="1016" spans="1:6">
+      <c r="A1016" s="2"/>
+      <c r="B1016" s="2"/>
+      <c r="C1016" s="2"/>
+      <c r="D1016" s="2"/>
+      <c r="E1016" s="2"/>
+      <c r="F1016" s="2"/>
+    </row>
+    <row r="1017" spans="1:6">
+      <c r="A1017" s="2"/>
+      <c r="B1017" s="2"/>
+      <c r="C1017" s="2"/>
+      <c r="D1017" s="2"/>
+      <c r="E1017" s="2"/>
+      <c r="F1017" s="2"/>
+    </row>
+    <row r="1018" spans="1:6">
+      <c r="A1018" s="2"/>
+      <c r="B1018" s="2"/>
+      <c r="C1018" s="2"/>
+      <c r="D1018" s="2"/>
+      <c r="E1018" s="2"/>
+      <c r="F1018" s="2"/>
+    </row>
+    <row r="1019" spans="1:6">
+      <c r="A1019" s="2"/>
+      <c r="B1019" s="2"/>
+      <c r="C1019" s="2"/>
+      <c r="D1019" s="2"/>
+      <c r="E1019" s="2"/>
+      <c r="F1019" s="2"/>
+    </row>
+    <row r="1020" spans="1:6">
+      <c r="A1020" s="2"/>
+      <c r="B1020" s="2"/>
+      <c r="C1020" s="2"/>
+      <c r="D1020" s="2"/>
+      <c r="E1020" s="2"/>
+      <c r="F1020" s="2"/>
+    </row>
+    <row r="1021" spans="1:6">
+      <c r="A1021" s="2"/>
+      <c r="B1021" s="2"/>
+      <c r="C1021" s="2"/>
+      <c r="D1021" s="2"/>
+      <c r="E1021" s="2"/>
+      <c r="F1021" s="2"/>
+    </row>
+    <row r="1022" spans="1:6">
+      <c r="A1022" s="2"/>
+      <c r="B1022" s="2"/>
+      <c r="C1022" s="2"/>
+      <c r="D1022" s="2"/>
+      <c r="E1022" s="2"/>
+      <c r="F1022" s="2"/>
+    </row>
+    <row r="1023" spans="1:6">
+      <c r="A1023" s="2"/>
+      <c r="B1023" s="2"/>
+      <c r="C1023" s="2"/>
+      <c r="D1023" s="2"/>
+      <c r="E1023" s="2"/>
+      <c r="F1023" s="2"/>
+    </row>
+    <row r="1024" spans="1:6">
+      <c r="A1024" s="2"/>
+      <c r="B1024" s="2"/>
+      <c r="C1024" s="2"/>
+      <c r="D1024" s="2"/>
+      <c r="E1024" s="2"/>
+      <c r="F1024" s="2"/>
+    </row>
+    <row r="1025" spans="1:6">
+      <c r="A1025" s="2"/>
+      <c r="B1025" s="2"/>
+      <c r="C1025" s="2"/>
+      <c r="D1025" s="2"/>
+      <c r="E1025" s="2"/>
+      <c r="F1025" s="2"/>
+    </row>
+    <row r="1026" spans="1:6">
+      <c r="A1026" s="2"/>
+      <c r="B1026" s="2"/>
+      <c r="C1026" s="2"/>
+      <c r="D1026" s="2"/>
+      <c r="E1026" s="2"/>
+      <c r="F1026" s="2"/>
+    </row>
+    <row r="1027" spans="1:6">
+      <c r="A1027" s="2"/>
+      <c r="B1027" s="2"/>
+      <c r="C1027" s="2"/>
+      <c r="D1027" s="2"/>
+      <c r="E1027" s="2"/>
+      <c r="F1027" s="2"/>
+    </row>
+    <row r="1028" spans="1:6">
+      <c r="A1028" s="2"/>
+      <c r="B1028" s="2"/>
+      <c r="C1028" s="2"/>
+      <c r="D1028" s="2"/>
+      <c r="E1028" s="2"/>
+      <c r="F1028" s="2"/>
+    </row>
+    <row r="1029" spans="1:6">
+      <c r="A1029" s="2"/>
+      <c r="B1029" s="2"/>
+      <c r="C1029" s="2"/>
+      <c r="D1029" s="2"/>
+      <c r="E1029" s="2"/>
+      <c r="F1029" s="2"/>
+    </row>
+    <row r="1030" spans="1:6">
+      <c r="A1030" s="2"/>
+      <c r="B1030" s="2"/>
+      <c r="C1030" s="2"/>
+      <c r="D1030" s="2"/>
+      <c r="E1030" s="2"/>
+      <c r="F1030" s="2"/>
+    </row>
+    <row r="1031" spans="1:6">
+      <c r="A1031" s="2"/>
+      <c r="B1031" s="2"/>
+      <c r="C1031" s="2"/>
+      <c r="D1031" s="2"/>
+      <c r="E1031" s="2"/>
+      <c r="F1031" s="2"/>
+    </row>
+    <row r="1032" spans="1:6">
+      <c r="A1032" s="2"/>
+      <c r="B1032" s="2"/>
+      <c r="C1032" s="2"/>
+      <c r="D1032" s="2"/>
+      <c r="E1032" s="2"/>
+      <c r="F1032" s="2"/>
+    </row>
+    <row r="1033" spans="1:6">
+      <c r="A1033" s="2"/>
+      <c r="B1033" s="2"/>
+      <c r="C1033" s="2"/>
+      <c r="D1033" s="2"/>
+      <c r="E1033" s="2"/>
+      <c r="F1033" s="2"/>
+    </row>
+    <row r="1034" spans="1:6">
+      <c r="A1034" s="2"/>
+      <c r="B1034" s="2"/>
+      <c r="C1034" s="2"/>
+      <c r="D1034" s="2"/>
+      <c r="E1034" s="2"/>
+      <c r="F1034" s="2"/>
+    </row>
+    <row r="1035" spans="1:6">
+      <c r="A1035" s="2"/>
+      <c r="B1035" s="2"/>
+      <c r="C1035" s="2"/>
+      <c r="D1035" s="2"/>
+      <c r="E1035" s="2"/>
+      <c r="F1035" s="2"/>
+    </row>
+    <row r="1036" spans="1:6">
+      <c r="A1036" s="2"/>
+      <c r="B1036" s="2"/>
+      <c r="C1036" s="2"/>
+      <c r="D1036" s="2"/>
+      <c r="E1036" s="2"/>
+      <c r="F1036" s="2"/>
+    </row>
+    <row r="1037" spans="1:6">
+      <c r="A1037" s="2"/>
+      <c r="B1037" s="2"/>
+      <c r="C1037" s="2"/>
+      <c r="D1037" s="2"/>
+      <c r="E1037" s="2"/>
+      <c r="F1037" s="2"/>
+    </row>
+    <row r="1038" spans="1:6">
+      <c r="A1038" s="2"/>
+      <c r="B1038" s="2"/>
+      <c r="C1038" s="2"/>
+      <c r="D1038" s="2"/>
+      <c r="E1038" s="2"/>
+      <c r="F1038" s="2"/>
+    </row>
+    <row r="1039" spans="1:6">
+      <c r="A1039" s="2"/>
+      <c r="B1039" s="2"/>
+      <c r="C1039" s="2"/>
+      <c r="D1039" s="2"/>
+      <c r="E1039" s="2"/>
+      <c r="F1039" s="2"/>
+    </row>
+    <row r="1040" spans="1:6">
+      <c r="A1040" s="2"/>
+      <c r="B1040" s="2"/>
+      <c r="C1040" s="2"/>
+      <c r="D1040" s="2"/>
+      <c r="E1040" s="2"/>
+      <c r="F1040" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F1"/>
